--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--xiaomi.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--xiaomi.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44364.54730291924</v>
+        <v>44375.90797642361</v>
       </c>
       <c r="C2">
         <v>229</v>

--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--xiaomi.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--xiaomi.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44375.90797642361</v>
+        <v>44375.90976891917</v>
       </c>
       <c r="C2">
         <v>229</v>
